--- a/jour35.xlsx
+++ b/jour35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Rongier', 'Ounahi', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Mbappe', 'Neymar']</t>
-  </si>
-  <si>
-    <t>['Rajot', 'Bayo']</t>
-  </si>
-  <si>
-    <t>['Dugimont']</t>
-  </si>
-  <si>
-    <t>['Mollet', 'Pallois']</t>
-  </si>
-  <si>
-    <t>['Magnetti']</t>
-  </si>
-  <si>
-    <t>['Andre', 'David', 'Gomes', 'Andre']</t>
-  </si>
-  <si>
-    <t>['Caqueret', 'Cherki']</t>
-  </si>
-  <si>
-    <t>["N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Onaiwu']</t>
+    <t>['Michelin', 'Hamouma', 'Lebas']</t>
+  </si>
+  <si>
+    <t>['Delort', 'Delort']</t>
+  </si>
+  <si>
+    <t>['Jeanvier']</t>
+  </si>
+  <si>
+    <t>['Pepe', 'Diop']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Harit', 'Rongier']</t>
+  </si>
+  <si>
+    <t>['Lopez']</t>
+  </si>
+  <si>
+    <t>['Balogin', 'Lopy']</t>
+  </si>
+  <si>
+    <t>['Delaine', 'Delaine', 'Perrin']</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Brest</t>
   </si>
   <si>
     <t>OM</t>
   </si>
   <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>['Conte', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Assignon', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['Innocent', 'Ponceau']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Balogin', 'Flips', 'Serhuis']</t>
-  </si>
-  <si>
-    <t>['Camara', 'Sima']</t>
-  </si>
-  <si>
-    <t>['Varane']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Ben_Seguir', 'Sibide']</t>
-  </si>
-  <si>
-    <t>['Dante', 'Laborde']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>['Traore', 'Traore']</t>
+  </si>
+  <si>
+    <t>['Wahi', 'Maouassa']</t>
+  </si>
+  <si>
+    <t>['Healey', 'Van_den_Boomen', 'Ratao']</t>
+  </si>
+  <si>
+    <t>['Andre', 'Yoro']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Masson']</t>
+  </si>
+  <si>
+    <t>['Silva', 'Innocent', 'Le_Fee']</t>
+  </si>
+  <si>
+    <t>['Serrano']</t>
+  </si>
+  <si>
+    <t>['Kipembe']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Tagliafico']</t>
+  </si>
+  <si>
+    <t>['Varane', 'Sylla', 'Ganiou']</t>
   </si>
 </sst>
 </file>
@@ -558,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -567,10 +564,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -587,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,10 +593,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -610,28 +607,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,25 +636,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -668,28 +665,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,28 +694,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,25 +723,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -761,22 +758,22 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,25 +781,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -813,28 +810,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour35.xlsx
+++ b/jour35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Michelin', 'Hamouma', 'Lebas']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Delort']</t>
-  </si>
-  <si>
-    <t>['Jeanvier']</t>
-  </si>
-  <si>
-    <t>['Pepe', 'Diop']</t>
+    <t>['Mavididi', 'Germain']</t>
+  </si>
+  <si>
+    <t>['Ratao', 'Spierings']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Harit', 'Rongier']</t>
-  </si>
-  <si>
-    <t>['Lopez']</t>
-  </si>
-  <si>
-    <t>['Balogin', 'Lopy']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'Delaine', 'Perrin']</t>
+    <t>['Kalimuendo', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>['Le_Marchand', 'Mothiba', 'Perrin']</t>
+  </si>
+  <si>
+    <t>['Laporte']</t>
+  </si>
+  <si>
+    <t>['Autret', 'Bain']</t>
+  </si>
+  <si>
+    <t>['Aouar']</t>
+  </si>
+  <si>
+    <t>['Varane', 'Fortes', 'Valencia']</t>
+  </si>
+  <si>
+    <t>['Soler', 'Ruiz', 'Kipembe']</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Clermont</t>
   </si>
   <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>['Traore', 'Traore']</t>
-  </si>
-  <si>
-    <t>['Wahi', 'Maouassa']</t>
-  </si>
-  <si>
-    <t>['Healey', 'Van_den_Boomen', 'Ratao']</t>
-  </si>
-  <si>
-    <t>['Andre', 'Yoro']</t>
-  </si>
-  <si>
-    <t>['Alioui', 'Masson']</t>
-  </si>
-  <si>
-    <t>['Silva', 'Innocent', 'Le_Fee']</t>
-  </si>
-  <si>
-    <t>['Serrano']</t>
-  </si>
-  <si>
-    <t>['Kipembe']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Tagliafico']</t>
-  </si>
-  <si>
-    <t>['Varane', 'Sylla', 'Ganiou']</t>
+    <t>['Elis', 'Tavares', 'Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Munetsi']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Bailly']</t>
+  </si>
+  <si>
+    <t>['Diop', 'Beka', 'Laborde', 'Beka', 'Dante']</t>
+  </si>
+  <si>
+    <t>['Doumbia', 'Capelle', 'Bamba', 'Masson']</t>
+  </si>
+  <si>
+    <t>['Henrique', 'Ben_Yedder']</t>
+  </si>
+  <si>
+    <t>['Rajot', 'Cisse', 'Rajot']</t>
+  </si>
+  <si>
+    <t>['Lebas']</t>
+  </si>
+  <si>
+    <t>['Conte', 'Palaversa', 'Odobert']</t>
+  </si>
+  <si>
+    <t>['Fonte']</t>
   </si>
 </sst>
 </file>
@@ -549,28 +552,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -584,22 +587,22 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -607,28 +610,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -642,22 +645,22 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -665,28 +668,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -694,28 +697,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -723,28 +726,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -752,25 +755,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -787,22 +790,22 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -810,28 +813,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jour35.xlsx
+++ b/jour35.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +43,55 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Mavididi', 'Germain']</t>
-  </si>
-  <si>
-    <t>['Ratao', 'Spierings']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Le_Marchand', 'Mothiba', 'Perrin']</t>
-  </si>
-  <si>
-    <t>['Laporte']</t>
-  </si>
-  <si>
-    <t>['Autret', 'Bain']</t>
-  </si>
-  <si>
-    <t>['Aouar']</t>
-  </si>
-  <si>
-    <t>['Varane', 'Fortes', 'Valencia']</t>
-  </si>
-  <si>
-    <t>['Soler', 'Ruiz', 'Kipembe']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Moffi', 'Beka', 'Attal']</t>
+  </si>
+  <si>
+    <t>['Borges', 'Borges', 'Rajot']</t>
+  </si>
+  <si>
+    <t>['Tchato', 'Savanier']</t>
+  </si>
+  <si>
+    <t>['Lemarechal', 'Lemarechal']</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Clermont</t>
   </si>
   <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nantes</t>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lens</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>['Elis', 'Tavares', 'Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Munetsi']</t>
-  </si>
-  <si>
-    <t>['Kabore', 'Bailly']</t>
-  </si>
-  <si>
-    <t>['Diop', 'Beka', 'Laborde', 'Beka', 'Dante']</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Capelle', 'Bamba', 'Masson']</t>
-  </si>
-  <si>
-    <t>['Henrique', 'Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Rajot', 'Cisse', 'Rajot']</t>
-  </si>
-  <si>
-    <t>['Lebas']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Palaversa', 'Odobert']</t>
-  </si>
-  <si>
-    <t>['Fonte']</t>
+    <t>['Kabore', 'Clauss', 'Payet']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Guillaume']</t>
+  </si>
+  <si>
+    <t>['Fortes', 'Ganiou']</t>
+  </si>
+  <si>
+    <t>['Santamaria', 'Traore', 'Majer']</t>
   </si>
 </sst>
 </file>
@@ -515,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,295 +480,151 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>57</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
+      <c r="G4">
+        <v>2</v>
       </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>40</v>
       </c>
-      <c r="I4">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
